--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H2">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N2">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q2">
-        <v>50.14834769204131</v>
+        <v>69.36051814314443</v>
       </c>
       <c r="R2">
-        <v>50.14834769204131</v>
+        <v>624.2446632883</v>
       </c>
       <c r="S2">
-        <v>0.1699152353035445</v>
+        <v>0.1942545371302411</v>
       </c>
       <c r="T2">
-        <v>0.1699152353035445</v>
+        <v>0.1942545371302411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H3">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N3">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q3">
-        <v>56.76026766250888</v>
+        <v>69.5797730921139</v>
       </c>
       <c r="R3">
-        <v>56.76026766250888</v>
+        <v>626.217957829025</v>
       </c>
       <c r="S3">
-        <v>0.192318085831928</v>
+        <v>0.1948685935093714</v>
       </c>
       <c r="T3">
-        <v>0.192318085831928</v>
+        <v>0.1948685935093714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H4">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N4">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q4">
-        <v>41.41445483112901</v>
+        <v>54.85679850702221</v>
       </c>
       <c r="R4">
-        <v>41.41445483112901</v>
+        <v>493.7111865632</v>
       </c>
       <c r="S4">
-        <v>0.1403226060569905</v>
+        <v>0.1536346943146611</v>
       </c>
       <c r="T4">
-        <v>0.1403226060569905</v>
+        <v>0.1536346943146611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H5">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I5">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J5">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N5">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q5">
-        <v>34.71502147535399</v>
+        <v>40.04422705281066</v>
       </c>
       <c r="R5">
-        <v>34.71502147535399</v>
+        <v>360.398043475296</v>
       </c>
       <c r="S5">
-        <v>0.1176232381328987</v>
+        <v>0.1121498656458763</v>
       </c>
       <c r="T5">
-        <v>0.1176232381328987</v>
+        <v>0.1121498656458763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H6">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N6">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q6">
-        <v>39.29210036891305</v>
+        <v>40.17081052124534</v>
       </c>
       <c r="R6">
-        <v>39.29210036891305</v>
+        <v>361.537294691208</v>
       </c>
       <c r="S6">
-        <v>0.1331315344775338</v>
+        <v>0.1125043816403845</v>
       </c>
       <c r="T6">
-        <v>0.1331315344775338</v>
+        <v>0.1125043816403845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H7">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N7">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q7">
-        <v>28.66901413545254</v>
+        <v>31.67072786670933</v>
       </c>
       <c r="R7">
-        <v>28.66901413545254</v>
+        <v>285.036550800384</v>
       </c>
       <c r="S7">
-        <v>0.09713784216103202</v>
+        <v>0.08869862490976115</v>
       </c>
       <c r="T7">
-        <v>0.09713784216103202</v>
+        <v>0.08869862490976115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H8">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I8">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J8">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N8">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q8">
-        <v>5.301628162475281</v>
+        <v>6.337801069034221</v>
       </c>
       <c r="R8">
-        <v>5.301628162475281</v>
+        <v>57.04020962130799</v>
       </c>
       <c r="S8">
-        <v>0.01796325179546942</v>
+        <v>0.01774996274606804</v>
       </c>
       <c r="T8">
-        <v>0.01796325179546942</v>
+        <v>0.01774996274606804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H9">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I9">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J9">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N9">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q9">
-        <v>6.000633069650455</v>
+        <v>6.357835438545444</v>
       </c>
       <c r="R9">
-        <v>6.000633069650455</v>
+        <v>57.220518946909</v>
       </c>
       <c r="S9">
-        <v>0.02033165651361433</v>
+        <v>0.01780607200361521</v>
       </c>
       <c r="T9">
-        <v>0.02033165651361433</v>
+        <v>0.01780607200361521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H10">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N10">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q10">
-        <v>4.378290615168553</v>
+        <v>5.01252709075911</v>
       </c>
       <c r="R10">
-        <v>4.378290615168553</v>
+        <v>45.11274381683199</v>
       </c>
       <c r="S10">
-        <v>0.01483475157889859</v>
+        <v>0.01403833414073833</v>
       </c>
       <c r="T10">
-        <v>0.01483475157889859</v>
+        <v>0.01403833414073833</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H11">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I11">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J11">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N11">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q11">
-        <v>9.621603481298612</v>
+        <v>12.05020946172533</v>
       </c>
       <c r="R11">
-        <v>9.621603481298612</v>
+        <v>108.451885155528</v>
       </c>
       <c r="S11">
-        <v>0.03260041645961775</v>
+        <v>0.03374841947516897</v>
       </c>
       <c r="T11">
-        <v>0.03260041645961775</v>
+        <v>0.03374841947516897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H12">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I12">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J12">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N12">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q12">
-        <v>10.89018510230414</v>
+        <v>12.08830127723267</v>
       </c>
       <c r="R12">
-        <v>10.89018510230414</v>
+        <v>108.794711495094</v>
       </c>
       <c r="S12">
-        <v>0.03689869057143091</v>
+        <v>0.03385510131936392</v>
       </c>
       <c r="T12">
-        <v>0.03689869057143091</v>
+        <v>0.03385510131936392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H13">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I13">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J13">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N13">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q13">
-        <v>7.945894154405289</v>
+        <v>9.530435038634666</v>
       </c>
       <c r="R13">
-        <v>7.945894154405289</v>
+        <v>85.77391534771199</v>
       </c>
       <c r="S13">
-        <v>0.02692269111704159</v>
+        <v>0.02669141316475003</v>
       </c>
       <c r="T13">
-        <v>0.02692269111704159</v>
+        <v>0.02669141316475003</v>
       </c>
     </row>
   </sheetData>
